--- a/WebContent/DownloadFiles/test.xlsx
+++ b/WebContent/DownloadFiles/test.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +378,7 @@
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
